--- a/test_cases/TC-2/PE-16 - Resultado.xlsx
+++ b/test_cases/TC-2/PE-16 - Resultado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Desktop\UADE\Año 2\Segundo Cutrimestre\Testing de Aplicaciones\TPO\test_cases\TC-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71672345-1302-4CEB-9B3F-97D79FA4B8BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7532D70B-1521-415D-9D2A-9E3AC9FBD34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="63">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -84,9 +84,6 @@
     <t>Tener un e-mail y usuario no registrado</t>
   </si>
   <si>
-    <t>Tener un e-mail ya asociado con un usuario</t>
-  </si>
-  <si>
     <t>Completar el formulario completando todos los datos obligatorios y no obligatorios</t>
   </si>
   <si>
@@ -120,18 +117,12 @@
     <t>Visualizacion del formulario para ingresar un e-mail</t>
   </si>
   <si>
-    <t>El boton de register esta habilitado siempre pero es necesario completar los campos</t>
-  </si>
-  <si>
     <t>Se redirige al home</t>
   </si>
   <si>
     <t>No hay mensaje de error y se visualiza el formulario para crear la cuenta</t>
   </si>
   <si>
-    <t>TC-2</t>
-  </si>
-  <si>
     <t>Test Data</t>
   </si>
   <si>
@@ -141,41 +132,92 @@
     <t>Test Case Titulo</t>
   </si>
   <si>
+    <t>User e-mail no asociado = carlos@gmail.com</t>
+  </si>
+  <si>
+    <t>F_Name = carlos</t>
+  </si>
+  <si>
+    <t>Adsres1 = calle falsa</t>
+  </si>
+  <si>
+    <t>City = Los Angeles</t>
+  </si>
+  <si>
+    <t>State = California</t>
+  </si>
+  <si>
+    <t>Country = US</t>
+  </si>
+  <si>
+    <t>TC-2-1</t>
+  </si>
+  <si>
     <t>PE-16
-Crear una Cuenta</t>
-  </si>
-  <si>
-    <t>User e-mail no asociado = carlos@gmail.com</t>
-  </si>
-  <si>
-    <t>User password = 5679</t>
-  </si>
-  <si>
-    <t>F_Name = carlos</t>
-  </si>
-  <si>
-    <t>L_Name = sanches</t>
-  </si>
-  <si>
-    <t>Adsres1 = calle falsa</t>
-  </si>
-  <si>
-    <t>Adsres2 = 218</t>
-  </si>
-  <si>
-    <t>ZipCode = 440</t>
-  </si>
-  <si>
-    <t>City = Los Angeles</t>
-  </si>
-  <si>
-    <t>State = California</t>
-  </si>
-  <si>
-    <t>Country = US</t>
-  </si>
-  <si>
-    <t>Phone Number = 1229</t>
+Crear una Cuenta 1</t>
+  </si>
+  <si>
+    <t>User password = 5677</t>
+  </si>
+  <si>
+    <t>DOB = 12/12/93</t>
+  </si>
+  <si>
+    <t>Phone Number = 1227</t>
+  </si>
+  <si>
+    <t>TC-2-2</t>
+  </si>
+  <si>
+    <t>PE-16
+Crear una Cuenta 2</t>
+  </si>
+  <si>
+    <t>Adsres2 = 215</t>
+  </si>
+  <si>
+    <t>Company = Claro</t>
+  </si>
+  <si>
+    <t>DOB = 12/12/95</t>
+  </si>
+  <si>
+    <t>Extra Info = soy padre</t>
+  </si>
+  <si>
+    <t>Completar el formulario completando todos los datos obligatorios</t>
+  </si>
+  <si>
+    <t>El boton de register esta habilitado siempre y los unicos campos obligatorios son e-mail y password</t>
+  </si>
+  <si>
+    <t>El boton de register esta habilitado siempre y hay opciones faltantes como DOB y Extra Info</t>
+  </si>
+  <si>
+    <t>El boton de register esta habilitado siempre pero es necesario completar los campos e-mail y password para poder enviar el form</t>
+  </si>
+  <si>
+    <t>TC-2-3</t>
+  </si>
+  <si>
+    <t>PE-16
+Crear una Cuenta Fallo</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>TC-2-4</t>
+  </si>
+  <si>
+    <t>Tener un e-mail ya registrado</t>
+  </si>
+  <si>
+    <t>PE-16
+Intentar crear una cuenta con un email ya usado</t>
+  </si>
+  <si>
+    <t>User password = 1234</t>
   </si>
 </sst>
 </file>
@@ -358,7 +400,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -380,81 +422,73 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,8 +518,8 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>103789</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>112058</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -527,15 +561,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>268942</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>22972</xdr:rowOff>
+      <xdr:colOff>280148</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>313763</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>425824</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>280147</xdr:rowOff>
+      <xdr:colOff>437030</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>515470</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -550,8 +584,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7138148" y="3070972"/>
-          <a:ext cx="1905000" cy="996763"/>
+          <a:off x="7149354" y="2980763"/>
+          <a:ext cx="1905000" cy="1311089"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -603,15 +637,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>112058</xdr:rowOff>
+      <xdr:colOff>224118</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>560295</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>11207</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -626,7 +660,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11721353" y="8135470"/>
+          <a:off x="11754971" y="8124264"/>
           <a:ext cx="2700618" cy="1154206"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -671,6 +705,82 @@
             <a:t> redirige directamente al home y el boton siempre esta habilitado</a:t>
           </a:r>
           <a:endParaRPr lang="es-ES" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>179293</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>257735</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>560294</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C328EF60-9BA7-7BDA-E8B8-3B0925E0BBF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7048499" y="17279471"/>
+          <a:ext cx="2409265" cy="930088"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1600"/>
+            <a:t>Si se ingresan</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1600" baseline="0"/>
+            <a:t> un e-mail y contraseña ya registrado no hay mensaje de error </a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1600"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -942,10 +1052,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G34"/>
+  <dimension ref="B1:G69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X31" sqref="X31"/>
+      <selection activeCell="Q67" sqref="Q67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,15 +1079,15 @@
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="2"/>
-      <c r="G2" s="28" t="s">
-        <v>35</v>
+      <c r="G2" s="10" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -988,374 +1098,736 @@
         <v>2</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="15" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="19" t="s">
-        <v>36</v>
+      <c r="G3" s="15" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>38</v>
+      <c r="B4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="21"/>
+      <c r="E4" s="20"/>
       <c r="F4" s="2"/>
       <c r="G4" s="20"/>
     </row>
     <row r="5" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="19" t="s">
-        <v>39</v>
+      <c r="G5" s="13" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="23"/>
-      <c r="C6" s="20"/>
-      <c r="E6" s="21"/>
-      <c r="G6" s="20"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="16"/>
+      <c r="G6" s="13" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="24"/>
-      <c r="C7" s="21"/>
-      <c r="G7" s="31" t="s">
-        <v>40</v>
+      <c r="B7" s="19"/>
+      <c r="C7" s="20"/>
+      <c r="G7" s="13" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="31" t="s">
-        <v>41</v>
+      <c r="G8" s="13" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G9" s="31" t="s">
-        <v>42</v>
+      <c r="G9" s="13" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G10" s="31" t="s">
+      <c r="G10" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="31"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="24"/>
+      <c r="F14" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="27"/>
+    </row>
+    <row r="15" spans="2:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="8">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="22"/>
+      <c r="F15" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="28"/>
+    </row>
+    <row r="16" spans="2:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="8">
+        <v>2</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="22"/>
+      <c r="F16" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="28"/>
+    </row>
+    <row r="17" spans="2:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="8">
+        <v>3</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="22"/>
+      <c r="F17" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="28"/>
+    </row>
+    <row r="18" spans="2:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="8">
+        <v>4</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="22"/>
+      <c r="F18" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="28"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="8">
+        <v>5</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="26"/>
+      <c r="F19" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="29"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B23" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="20"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="G24" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G11" s="31" t="s">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="18"/>
+      <c r="C25" s="16"/>
+      <c r="G25" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
+      <c r="G26" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G28" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G29" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G30" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G31" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G32" s="13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G12" s="31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G13" s="31" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G14" s="31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G15" s="31" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G16" s="12" t="s">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G33" s="13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="10" t="s">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G34" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G35" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G36" s="31"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="24"/>
+      <c r="F37" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="G37" s="27"/>
+    </row>
+    <row r="38" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B38" s="8">
+        <v>1</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="22"/>
+      <c r="F38" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G38" s="28"/>
+    </row>
+    <row r="39" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B39" s="8">
+        <v>2</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="22"/>
+      <c r="F39" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G39" s="28"/>
+    </row>
+    <row r="40" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B40" s="8">
+        <v>3</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="22"/>
+      <c r="F40" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G40" s="28"/>
+    </row>
+    <row r="41" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B41" s="8">
+        <v>4</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="22"/>
+      <c r="F41" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G41" s="28"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="8">
+        <v>5</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="26"/>
+      <c r="F42" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="G42" s="29"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B46" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="20"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="G47" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="18"/>
+      <c r="C48" s="16"/>
+      <c r="G48" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="19"/>
+      <c r="C49" s="20"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D52" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="15" t="s">
+      <c r="E52" s="24"/>
+      <c r="F52" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G52" s="30"/>
+    </row>
+    <row r="53" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B53" s="8">
+        <v>1</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" s="22"/>
+      <c r="F53" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G53" s="28"/>
+    </row>
+    <row r="54" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B54" s="8">
+        <v>2</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="22"/>
+      <c r="F54" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="33"/>
-    </row>
-    <row r="19" spans="2:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="8">
+      <c r="G54" s="28"/>
+    </row>
+    <row r="55" spans="2:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="8">
+        <v>3</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55" s="22"/>
+      <c r="F55" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G55" s="28"/>
+    </row>
+    <row r="56" spans="2:7" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="8">
+        <v>4</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E56" s="22"/>
+      <c r="F56" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G56" s="28"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="2"/>
+      <c r="G58" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C59" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F59" s="2"/>
+      <c r="G59" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B60" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="20"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="G61" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="18"/>
+      <c r="C62" s="16"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="19"/>
+      <c r="C63" s="20"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" s="24"/>
+      <c r="F66" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G66" s="30"/>
+    </row>
+    <row r="67" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B67" s="8">
+        <v>1</v>
+      </c>
+      <c r="C67" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D67" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="26"/>
-      <c r="F19" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="14"/>
-    </row>
-    <row r="20" spans="2:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="8">
+      <c r="E67" s="22"/>
+      <c r="F67" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G67" s="28"/>
+    </row>
+    <row r="68" spans="2:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="8">
         <v>2</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="26"/>
-      <c r="F20" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="14"/>
-    </row>
-    <row r="21" spans="2:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="8">
-        <v>3</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="26"/>
-      <c r="F21" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="14"/>
-    </row>
-    <row r="22" spans="2:7" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="8">
-        <v>4</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="26"/>
-      <c r="F22" s="13" t="s">
+      <c r="C68" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D68" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E68" s="22"/>
+      <c r="F68" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G22" s="14"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="8">
-        <v>5</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="27"/>
-      <c r="F23" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" s="18"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="25"/>
-      <c r="F25" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" s="16"/>
-    </row>
-    <row r="26" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B26" s="8">
-        <v>1</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="26"/>
-      <c r="F26" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G26" s="14"/>
-    </row>
-    <row r="27" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B27" s="8">
-        <v>2</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="26"/>
-      <c r="F27" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G27" s="14"/>
-    </row>
-    <row r="28" spans="2:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="8">
-        <v>3</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="26"/>
-      <c r="F28" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G28" s="14"/>
-    </row>
-    <row r="29" spans="2:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="8">
-        <v>4</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29" s="26"/>
-      <c r="F29" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="14"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="25"/>
-      <c r="F31" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G31" s="16"/>
-    </row>
-    <row r="32" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B32" s="8">
-        <v>1</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="26"/>
-      <c r="F32" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G32" s="14"/>
-    </row>
-    <row r="33" spans="2:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="8">
-        <v>2</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E33" s="26"/>
-      <c r="F33" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G33" s="14"/>
-    </row>
-    <row r="34" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="G68" s="28"/>
+    </row>
+    <row r="69" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="56">
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="F66:G66"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:C7"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D66:E66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
